--- a/biology/Mycologie/Pterulaceae/Pterulaceae.xlsx
+++ b/biology/Mycologie/Pterulaceae/Pterulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pterulaceae sont une famille de champignons basidiomycètes dans le clade III des Hygrophoroïdes, de l'ordre des Agaricales[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pterulaceae sont une famille de champignons basidiomycètes dans le clade III des Hygrophoroïdes, de l'ordre des Agaricales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (23 janvier 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (23 janvier 2023) :
 Actiniceps Berk. &amp; Broome, 1876
 Allantula Corner, 1952
 Coronicium J.Erikss. &amp; Ryvarden, 1975
@@ -555,9 +569,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pterulaceae Corner, 1970[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pterulaceae Corner, 1970.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Phylogramme des Pterulaceae :
 Clade des Athéloïdes
@@ -634,7 +652,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) E.J.H. Corner, « Supplement to 'A monograph of Clavaria and allied genera' », Nova Hedwigia, vol. 33,‎ 1970, p. 1-299 (ISSN 0029-5035)</t>
         </is>
